--- a/backend/PromoskopExcelParser/excel/LIST_2.xlsx
+++ b/backend/PromoskopExcelParser/excel/LIST_2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="411">
   <si>
     <t>TOZ İÇECEK KAKAOLU 375 G NESQUIK</t>
   </si>
@@ -736,6 +736,519 @@
   </si>
   <si>
     <t>GOFRET FINDIK KIREMALI 4X20 G TRİPLEX</t>
+  </si>
+  <si>
+    <t>http://www.nesquik.com.tr/media/30609/toz_375g_b.png</t>
+  </si>
+  <si>
+    <t>http://www.aytaslarmesrubat.com.tr/images/products/shazili/shazili-sutlu-hazir-turk-kahvesi-sekersiz-22g.jpg</t>
+  </si>
+  <si>
+    <t>http://images3.sanalmarket.com.tr/images/1000/urun//large/08035308_large.jpg</t>
+  </si>
+  <si>
+    <t>http://muratgida.com.tr/uploads/urunler/5368767-cola1tl-500x500.jpg</t>
+  </si>
+  <si>
+    <t>http://umittedarik.com/image/cache/data/icecekler/coca%2520cola%2520zero%2520k-500x500-500x500.jpg</t>
+  </si>
+  <si>
+    <t>http://kimkapinda.com/1016-328-thickbox/fanta-portakal-15-lt.jpg</t>
+  </si>
+  <si>
+    <t>http://www.ozdilekteyim.com/content/images/thumbs/uludag_1_lt_lmonata_sekersz_55204.jpeg</t>
+  </si>
+  <si>
+    <t>http://4.bp.blogspot.com/_U9j8A12eT5g/TB52Vs18JAI/AAAAAAAAX2Q/0wzaenIINL8/s1600/buzlu-%25C3%25A7ay-nas%25C4%25B1l-yap%25C4%25B1l%25C4%25B1r.jpg</t>
+  </si>
+  <si>
+    <t>http://www.garantiofis.com/FB,21076,70,lipton-ice-tea-seftali-aromali-soguk-cay-330-ml-24-lu-koli.jpg</t>
+  </si>
+  <si>
+    <t>http://toptanservis.com/image/cache/data/urunler/doganay/portakal-suyu-330ml-500x500.jpg</t>
+  </si>
+  <si>
+    <t>http://market.happy.com.tr/image/cache/data/items-ek/sarkuteri/DAMLAMINERA6X200MLMADENSUYU-500x500.jpg</t>
+  </si>
+  <si>
+    <t>http://img-avansas.mncdn.com/assets/60712/coca-cola-zero-kutu-330-ml-0-zoom.jpg</t>
+  </si>
+  <si>
+    <t>http://www.babamama.com.tr/image/cache/data/gida/5449000159151-500x500.jpg</t>
+  </si>
+  <si>
+    <t>http://www.marketbizden.com/yonetim/resim/urunler/lipton_seftali_15lt_zrvLOg.jpg</t>
+  </si>
+  <si>
+    <t>http://kampanyabul.org/img/a101-firsat.jpg</t>
+  </si>
+  <si>
+    <t>http://oetker.blob.core.windows.net/format/251372/636x380/0/puding_kakaolu.jpg</t>
+  </si>
+  <si>
+    <t>http://www.hastelgida.com/Images/urun/Yufka_-_Ucgen_360_g_copy_2.jpg</t>
+  </si>
+  <si>
+    <t>http://www.tulumba.com/mmTULUMBA/Images/FB42432P6EY044_250.jpg</t>
+  </si>
+  <si>
+    <t>http://www.akdumanmarket.com/image/cache/%255Cdata%255CDR_OETKER_KAKAO_50-500x500.jpg</t>
+  </si>
+  <si>
+    <t>http://ekapicin.com/media/catalog/product/cache/1/image/444x492.689295039/68b887c4aa6f15bc7f124428045fa72e/d/r/dr._oetker_supangle_143_g.jpg</t>
+  </si>
+  <si>
+    <t>http://market.happy.com.tr/image/cache/data/PNGLER/TozPNG/DROETKERKURUMAYA3LUPAK10GR-500x500.png</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/_2e_TljoesVg/TIyzcDRs-yI/AAAAAAAAADA/J3T7lE8zfx0/s1600/DSC_0034.JPG</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/_1CnY4LmFlzI/SN3wY-Vw04I/AAAAAAAAB5M/luaQkawkCNg/s640/baklava-muhteremleafiyetle%2B(2)%2B(Small).jpg</t>
+  </si>
+  <si>
+    <t>http://www.kredikartlari.net/image/kampanya/a101_9.jpg</t>
+  </si>
+  <si>
+    <t>http://www.kredikartlari.net/image/kampanya/a101_12_agustos_2009.jpg</t>
+  </si>
+  <si>
+    <t>http://www.temsankurumsal.com/image/cache/data/balkupu-kup-seker-gold-1kg-500x500.jpg</t>
+  </si>
+  <si>
+    <t>http://www.sokeun.com.tr/sokeun2010Images/feimg/urun_big_img/geleneksel-un-ambalajlari-b.jpg</t>
+  </si>
+  <si>
+    <t>http://devpasupermarket.com/shop/products/8690629253004.JPG</t>
+  </si>
+  <si>
+    <t>http://www.kredikartlari.net/image/kampanya/a101_6_2_2013.jpg</t>
+  </si>
+  <si>
+    <t>http://www.marketkapinizda.com/wp-content/uploads/2014/04/filiz-makarna-burgu_makarna_500_gr.jpeg</t>
+  </si>
+  <si>
+    <t>http://www.ozdilekteyim.com/content/images/thumbs/flz_yassi_spagett_makarna_500_gr_54000.jpeg</t>
+  </si>
+  <si>
+    <t>http://www.ozdilekteyim.com/content/images/thumbs/flz_mn_kelebek_makarna_500_gr_54014.jpeg</t>
+  </si>
+  <si>
+    <t>http://www.maxikarizma.com/image/cache/data/urunler/04-gida/01-makarna/filiz/filiz-makarna-klasik-boncuk-500gr/filiz-makarna-klasik-boncuk-500gr-1000x1000.jpg</t>
+  </si>
+  <si>
+    <t>http://www.naturgida.com.tr/images/urunler/bonomi1.jpg</t>
+  </si>
+  <si>
+    <t>http://www.myekran.net/galeri/indirim/a101_firsat_urunleri_16_02_2012.jpg</t>
+  </si>
+  <si>
+    <t>http://images1.sanalmarket.com.tr/images/1000/urun//large/07100169_large.jpg</t>
+  </si>
+  <si>
+    <t>http://4.bp.blogspot.com/-Bblyk5LKCws/UaXxQDcU4SI/AAAAAAAAAdY/0USmNMMXWYE/s1600/Puding%2Bod%2Bcokolade.jpg</t>
+  </si>
+  <si>
+    <t>http://www.alisverisrehberi.com/haber/upload/buyuk/5076_a101_21_temmuz_2011_firsat_urunleri_brosuru_182.jpg</t>
+  </si>
+  <si>
+    <t>http://www.ereglidealisveris.com/alisveris/media/k2/items/cache/d29f724a45ead59fbed342a9b3ad72f4_XL.jpg</t>
+  </si>
+  <si>
+    <t>http://www.marketpaketi.com/modules/catalog/products/pr_01_113_max.jpg%3Frev%3D1405338654</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/-JD85wYtSpes/TX3MaHaq03I/AAAAAAAAA_8/Y90PPJ8a6fk/s1600/14%2Bmart%2B2011ar%2525C4%2525B1lar%2B-inci%2Bdo%2525C4%25259Fum%2Bg%2525C3%2525BCn%2525C3%2525BC%2Bve%2Btloss%2Bresimleri%2B036.jpg</t>
+  </si>
+  <si>
+    <t>http://www.haberler.gen.al/resim/12/05/tn/ipsalada-uretilen-kokulu-pirinc-piyasaya-cikmaya-hazirlaniyor-1.jpg</t>
+  </si>
+  <si>
+    <t>http://www.gourmetgarage.com.tr/UrunFiles/U500/1/423.jpg</t>
+  </si>
+  <si>
+    <t>http://www.mutfaksirlari.com/wp-content/uploads/2008/12/beze.jpg</t>
+  </si>
+  <si>
+    <t>http://www.tr.all.biz/img/tr/catalog/261291.jpeg</t>
+  </si>
+  <si>
+    <t>http://www.yoreselurunlerdunyasi.com/image/cache/data/misir_unu1-500x500.png</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/-Q4fM7V_JIkM/Ujyn4Y510eI/AAAAAAAAALI/musGDhSUtjE/s1600/tumblr_mqtls7njhm1qmlkk6o1_500.jpg</t>
+  </si>
+  <si>
+    <t>http://i1323.photobucket.com/albums/u586/Pinar75/Mutfak/DSC08595_zps3b922725.jpg</t>
+  </si>
+  <si>
+    <t>http://www.muellerfrank.info/zenphoto/index.php%3Falbum%3Dmitteltriathlon-erlangen-08%26image%3DIMG_9912.JPG%26p%3D*full-image</t>
+  </si>
+  <si>
+    <t>https://www.bioking.at/images/Vollkorn-Spaghetti.gif</t>
+  </si>
+  <si>
+    <t>http://www.acemiascilar.com/wp-content/uploads/2012/05/Kavurmali_Arpa_Sehriye.jpg</t>
+  </si>
+  <si>
+    <t>http://www.acemiascilar.com/wp-content/uploads/2012/04/Tavuk_%25C3%2587orbas%25C4%25B1-150x150.jpg</t>
+  </si>
+  <si>
+    <t>http://1.bp.blogspot.com/-46EMJccURIU/Tm-SKK-H4sI/AAAAAAAACPw/XnLBXxpA_mo/s1600/P1260758.JPG</t>
+  </si>
+  <si>
+    <t>http://i00.i.aliimg.com/wsphoto/v0/1857643408_1/plastic-bird-fruit-fork-plastic-font-b-tree-b-font-with-bird-fruit-picks-creative-font.jpg</t>
+  </si>
+  <si>
+    <t>http://www.e-tarifler.com/wp-content/uploads/2009/07/irmik_helvasi.jpg</t>
+  </si>
+  <si>
+    <t>http://i1323.photobucket.com/albums/u586/Pinar75/kolye/DSC08718_zpsf4f74762.jpg</t>
+  </si>
+  <si>
+    <t>http://www.ozdilekteyim.com/content/images/thumbs/ben_kruvasan_kakaolu_50_gr_64767.jpeg</t>
+  </si>
+  <si>
+    <t>http://www.hepsimeshur.com/content_files/prd_images/sahin_manti_500_buyuk.jpg</t>
+  </si>
+  <si>
+    <t>http://img.docstoccdn.com/thumb/orig/147374994.png</t>
+  </si>
+  <si>
+    <t>http://www.tadim.com.tr/media/content/images/200g(1).png</t>
+  </si>
+  <si>
+    <t>http://www.big-reds.org/wp-content/uploads/2013/04/photo-21.jpg</t>
+  </si>
+  <si>
+    <t>http://www.tadim.com.tr/media/content/images/kokteyl400gcopy.png</t>
+  </si>
+  <si>
+    <t>http://c.shld.net/rpx/i/s/i/spin/image/spin_prod_ec_1042028910%3Fhei%3D185%26wid%3D185%26op_sharpen%3D1%26qlt%3D85</t>
+  </si>
+  <si>
+    <t>http://i.ytimg.com/vi/kG5lEMOw_68/0.jpg</t>
+  </si>
+  <si>
+    <t>http://www.marketimyilmazlar.com/image/cache/data/CIPS/patos-rolls-acili_220-154x140.jpg</t>
+  </si>
+  <si>
+    <t>http://www.mumcu.com.tr/uploads/haber/buyuk/1334576529.jpg</t>
+  </si>
+  <si>
+    <t>https://imgv2-2-f.scribdassets.com/img/word_document/115110531/164x212/13f042f232/1410974187</t>
+  </si>
+  <si>
+    <t>http://img.docstoccdn.com/thumb/orig/34586232.png</t>
+  </si>
+  <si>
+    <t>http://i1.ytimg.com/vi/Z6J340bBBPw/0.jpg</t>
+  </si>
+  <si>
+    <t>http://mcdn01.gittigidiyor.net/2542/tn70/25422384_tn70_0.jpg</t>
+  </si>
+  <si>
+    <t>http://cdn.shopify.com/s/files/1/0354/9117/products/57_3_45ae51c2-2c42-49e6-9b3d-1f33884f666d_large.JPG%3Fv%3D1400965945</t>
+  </si>
+  <si>
+    <t>http://www.marketbizden.com/yonetim/resim/urunler/kucuk/kayisi_mi_jumbo_400_gr_Nlkje0.jpg</t>
+  </si>
+  <si>
+    <t>http://www.altaykuruyemis.com/en/wp-content/themes/twentyeleven/images/5_s.png</t>
+  </si>
+  <si>
+    <t>http://kimkapinda.com/37650-4180-thickbox/lays-firindan-super-110gr-yomevye.jpg</t>
+  </si>
+  <si>
+    <t>http://images1.sanalmarket.com.tr/images/1000/urun//large/08089024_large.jpg</t>
+  </si>
+  <si>
+    <t>http://images2.sanalmarket.com.tr/images/1000/urun//large/05087048_large.jpg</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/-xZMMquDcuJk/Tz-nRaw2sAI/AAAAAAAAMJc/OXDXf_Ux4Nw/s360/kuruyemis_glr%252520%2525281%252529.jpg</t>
+  </si>
+  <si>
+    <t>http://mcdn01.gittigidiyor.net/10537/tn70/105371727_tn70_0.jpg%3F_%3D1392367576</t>
+  </si>
+  <si>
+    <t>http://www.haciserif.com.tr/images/detailed/1/DSC_0165.jpg</t>
+  </si>
+  <si>
+    <t>http://www.markettenekadar.com/site/images/thumbs/thumb_notfoundd.png</t>
+  </si>
+  <si>
+    <t>http://pi.ce-tescoassets.com/assets/TR/042/8691026060042/ShotType1_328x328.jpg</t>
+  </si>
+  <si>
+    <t>http://images.hepsiburada.net/assets/Taris/300/Taris_3347939.jpg</t>
+  </si>
+  <si>
+    <t>http://www.maxikarizma.com/image/cache/data/urunler/04-gida/12-diger/nutella/nutella-kakaolu-findik-kremasi-400-gr/nutella-kakaolu-findik-kremasi-400-gr-1000x1000.jpg</t>
+  </si>
+  <si>
+    <t>http://www.namlishop.com/image/250-gr-soslu-cekirdeksiz-yesil-zeytin_1719.jpg</t>
+  </si>
+  <si>
+    <t>http://i.tfcdn.com/img2/DvU0wVEAY_rNwsiQlp-fEp-YlxJfnpmXypBRUlJgpa9fXl6ul5RaXFJSWpSdWZwBUqOXnJ-rX5CZm65vZGCgb2RhaKmXVZBuX1Jsa2hsZmZhbGxoaQAA/fvUG-v8A.B</t>
+  </si>
+  <si>
+    <t>https://6562ce622aecf5fc6d10-02ab0d1c5ff44151dc7db9ff68249adf.ssl.cf1.rackcdn.com/nestle-meyveli-musli-350g-515200.jpg</t>
+  </si>
+  <si>
+    <t>http://www.metinhelva.com.tr/Products/s/500gsade.jpg</t>
+  </si>
+  <si>
+    <t>http://images2.sanalmarket.com.tr/images/1000/urun//large/05098249_large.jpg</t>
+  </si>
+  <si>
+    <t>http://www.ulkerkelloggs.com/content/dam/workarea/assetpushqueue/images/web-raw-approved/Turkish%2520-%2520tr/81/68/prod_img-198168.jpg.thumb.319.319.png</t>
+  </si>
+  <si>
+    <t>http://www.marketbizden.com/yonetim/resim/urunler/kucuk/bizim_bugday_nisastasi_200gr_efkytF.jpg</t>
+  </si>
+  <si>
+    <t>http://www.alisverisrehberi.com/haber/upload/orta/16157_a101_market_22_kasim_2012_1_464.jpg</t>
+  </si>
+  <si>
+    <t>http://www.ozdilekteyim.com/content/images/thumbs/nestle_nesquik_500gr_eko_gevrek_54552.jpeg</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/-GALDGnip5Ls/T13c_3k01WI/AAAAAAAAAJE/pAZcckOJTN0/s200/a101-15-mart-2.jpg</t>
+  </si>
+  <si>
+    <t>http://www.onculler.com.tr/modules/catalog/products/pr_01_7_max.jpg%3Frev%3D1408844157</t>
+  </si>
+  <si>
+    <t>http://www.sivashakimiyet.com/resim/1_mayis_ta_birlik_mesajlari_verildi.jpg</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/-TQ0pcL_G4Ps/VD8eeyHgE6I/AAAAAAAAqv8/YW8kD-CBe1Y/s1600/Bali%252BNews%252B-%252BSP%252B500.jpg</t>
+  </si>
+  <si>
+    <t>https://lh6.googleusercontent.com/proxy/Rpp3JJCbIcFTEv0T96-CvJzgduvmSb26jAeWIdrZp7R3Qk3bWmOY1pm05FwDxa01hrSfctA9XaCfUK0oMN8u7gs%3Dw120-h120</t>
+  </si>
+  <si>
+    <t>http://gelinlikabiye.files.wordpress.com/2010/08/balo-kiyafetleri-70.jpg%253Fw%253D400</t>
+  </si>
+  <si>
+    <t>http://mcdn01.gittigidiyor.net/5916/tn70/59169268_tn70_0.jpg</t>
+  </si>
+  <si>
+    <t>https://6562ce622aecf5fc6d10-02ab0d1c5ff44151dc7db9ff68249adf.ssl.cf1.rackcdn.com/eti-burcak-140g-925645.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bestkartne.com/images/a101-26-ocak-12-subat-1-tl-urunleri.jpg</t>
+  </si>
+  <si>
+    <t>http://www.adepo.com/urun-resimleri/316947/220/28975.jpg%3Fr%3D1412721452-1823756535</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/-e0VbvGgW_SI/T2b_6K3l9jI/AAAAAAAAAQ4/UJKnSkfnc28/s400/25018636w6j.jpg</t>
+  </si>
+  <si>
+    <t>http://images1.sanalmarket.com.tr/images/1000/urun//large/05052651_large.jpg</t>
+  </si>
+  <si>
+    <t>http://market.happy.com.tr/image/cache/data/items/ETI_PAYKEK_MEYVELI_250_GR_16633-500x500.jpg</t>
+  </si>
+  <si>
+    <t>http://market.happy.com.tr/image/cache/data/items/ETI_PAYKEK_KAKAOLU_250_GR_16630-500x500.jpg</t>
+  </si>
+  <si>
+    <t>http://pi.ce-tescoassets.com/assets/TR/677/8690515006677/ShotType1_328x328.jpg</t>
+  </si>
+  <si>
+    <t>https://image.marketservisi.com/productphotos/373/super-market/cikolata-biskuvi-sekerleme/cikolata/1004135618316155818.jpg</t>
+  </si>
+  <si>
+    <t>https://www.eurofooddeals.com/wp-content/uploads/2012/09/21191.png</t>
+  </si>
+  <si>
+    <t>http://www.gimauk.com/images/products/MIL65MK20.jpg</t>
+  </si>
+  <si>
+    <t>http://images2.sanalmarket.com.tr/images/1000/urun/medium/07163545.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bogazicipismaniye.com.tr/galeri/15.jpg</t>
+  </si>
+  <si>
+    <t>http://mcdn01.gittigidiyor.net/12426/tn24/124266352_tn24_0.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bakkalim.uk/image/cache/data/products/etimek-rusk-bread-125g-snacks-chocolate-candy-etc-8690526097015-1440-600x600_0.png</t>
+  </si>
+  <si>
+    <t>http://www.avmsepet.com/Images/Urun/05012014195311.jpeg</t>
+  </si>
+  <si>
+    <t>http://www.hediyerengi.com/urun/pizza-tasarimli-duvar-saati-6633/pizza-tasarimli-duvar-saati.jpg</t>
+  </si>
+  <si>
+    <t>http://images1.sanalmarket.com.tr/images/1000/urun//large/07160641_large.jpg</t>
+  </si>
+  <si>
+    <t>http://www.formsante.com.tr/images/stories/saglik/nisan-2011-saglikli-menu-resim-3.jpg</t>
+  </si>
+  <si>
+    <t>https://lh6.googleusercontent.com/-C6axn8UR3pA/UuhKUOlZK9I/AAAAAAAAAM0/mLiWI0-PPb8/s640/blogger-image--310558026.jpg</t>
+  </si>
+  <si>
+    <t>http://online.koska.com/db_images/products/1800_370_1_thumb.jpg</t>
+  </si>
+  <si>
+    <t>http://www.adepo.com/urun-resimleri/739130/220/86974.jpg%3Fr%3D1413426232-1249842066</t>
+  </si>
+  <si>
+    <t>http://www.happy.com.tr/image/cache/data/HAPPYKG/Ulker_B._1079.1_Ikram(ciko._Kre.sand)100_Gr-160x160.jpg</t>
+  </si>
+  <si>
+    <t>https://fbexternal-a.akamaihd.net/safe_image.php%3Fd%3DAQAwQ9Bik4Uhntys%26url%3Dhttp%253A%252F%252Fi3.ytimg.com%252Fvi%252FFyeO6Vif2TE%252Fmqdefault.jpg%26jq%3D100</t>
+  </si>
+  <si>
+    <t>http://www.ranros.com/Untitled-3.gif</t>
+  </si>
+  <si>
+    <t>http://images2.sanalmarket.com.tr/images/1000/urun//large/07018218_large.jpg</t>
+  </si>
+  <si>
+    <t>https://6562ce622aecf5fc6d10-02ab0d1c5ff44151dc7db9ff68249adf.ssl.cf1.rackcdn.com/ulker-cokonat-37g-dc3cab.jpg</t>
+  </si>
+  <si>
+    <t>http://ecx.images-amazon.com/images/I/41euU-lniOL._SX425_.jpg</t>
+  </si>
+  <si>
+    <t>http://www.ulker.com.tr/documents/Ulker/markalar/metro_ust_banner.jpg</t>
+  </si>
+  <si>
+    <t>https://6562ce622aecf5fc6d10-02ab0d1c5ff44151dc7db9ff68249adf.ssl.cf1.rackcdn.com/ulker-9kat-findik-42g-58aef4.jpg</t>
+  </si>
+  <si>
+    <t>http://www.kredikartlari.net/image/kampanya/a101_24_kasim_2009.jpg</t>
+  </si>
+  <si>
+    <t>http://www.marketimyilmazlar.com/image/cache/data/KAHVE/Ulkerdamla-500x500.jpg</t>
+  </si>
+  <si>
+    <t>http://img.ofix.com/UserFiles/Product/Ulker-Cizi-Peynirli-Kraker-63-g-L08226-99d.jpg</t>
+  </si>
+  <si>
+    <t>http://img-avansas.mncdn.com/assets/61138/eti-form-kepekli-cubuk-kraker-50gr-24-lu-paket-0-zoom.jpg</t>
+  </si>
+  <si>
+    <t>http://img31.imageshack.us/img31/584/img0901g.jpg</t>
+  </si>
+  <si>
+    <t>http://1.bp.blogspot.com/-RZALFTK7Zj4/UujaFyJ8WnI/AAAAAAAAI0w/aQRPorZE800/s1600/1601160_811301182229451_1765985317_n.jpg</t>
+  </si>
+  <si>
+    <t>http://images.hepsiburada.net/assets/Taris/300/Taris_3349501.jpg</t>
+  </si>
+  <si>
+    <t>https://6562ce622aecf5fc6d10-02ab0d1c5ff44151dc7db9ff68249adf.ssl.cf1.rackcdn.com/ulker-sutlu-napoliten-97e144.jpg</t>
+  </si>
+  <si>
+    <t>http://i.ytimg.com/vi/r6mxMa1uDMk/0.jpg</t>
+  </si>
+  <si>
+    <t>http://www.juenpetmarket.com/UPLOAD/Juen_Pet_Market/Balik_Urunleri/Akvaryum_Ekipman/Ekipmanlar/CO2_Sistemleri/Kucuk/JPM006545_S.jpg</t>
+  </si>
+  <si>
+    <t>http://www.ofistic.com/wp-content/uploads/2014/06/Eti-Maximus-Yer-F%25C4%25B1st%25C4%25B1kl%25C4%25B1-%25C3%2587ikolata-40gr.jpg</t>
+  </si>
+  <si>
+    <t>http://www.cikolataport.com/media/uploads/watermarked/cf5bb35188b4aa85f3ad54e70c3d36fd9bce6f26.jpg</t>
+  </si>
+  <si>
+    <t>https://6562ce622aecf5fc6d10-02ab0d1c5ff44151dc7db9ff68249adf.ssl.cf1.rackcdn.com/eti-cay-findikli-141g-b599cb.jpg</t>
+  </si>
+  <si>
+    <t>http://www.marketkapinizda.com/wp-content/uploads/2014/04/ET%25C4%25B0_ho%25C5%259Fbe%25C5%259F_f%25C4%25B1nd%25C4%25B1kl%25C4%25B1_160gr.jpg</t>
+  </si>
+  <si>
+    <t>http://www.firsathaber.net/wp-content/uploads/2012/01/a101-26-ocak1.jpg</t>
+  </si>
+  <si>
+    <t>https://6562ce622aecf5fc6d10-02ab0d1c5ff44151dc7db9ff68249adf.ssl.cf1.rackcdn.com/eti-susami-136g-87d900.jpg</t>
+  </si>
+  <si>
+    <t>http://kimkapinda.com/16466-721-thickbox/eti-13371-popkek-kremali-5-li-250-gr-kakaolu.jpg</t>
+  </si>
+  <si>
+    <t>https://6562ce622aecf5fc6d10-02ab0d1c5ff44151dc7db9ff68249adf.ssl.cf1.rackcdn.com/ulker-fistikli-baton-35g-59e6b3.jpg</t>
+  </si>
+  <si>
+    <t>https://6562ce622aecf5fc6d10-02ab0d1c5ff44151dc7db9ff68249adf.ssl.cf1.rackcdn.com/ulker-sutlu-baton-35g-8d2bed.jpg</t>
+  </si>
+  <si>
+    <t>http://www.garantiofis.com/FB,6681,72,eti-browni-intense-cikolata-kapli-krema-dolgulu-kek-38gr-24-lu-koli.jpg</t>
+  </si>
+  <si>
+    <t>http://www.marketkapinizda.com/wp-content/uploads/2014/04/eti-hosbes-cilekli-gofret-160-gr-gofretler-eti.png</t>
+  </si>
+  <si>
+    <t>http://mcdn01.gittigidiyor.net/12426/tn24/124264979_tn24_0.jpg</t>
+  </si>
+  <si>
+    <t>http://1.bp.blogspot.com/_L4JZXTsVMfg/SeOjwxAkWZI/AAAAAAAAFl0/pTCcw71tOd0/s800/eti_eticinsevenler_yarismasi.jpg</t>
+  </si>
+  <si>
+    <t>http://www.assengida.com.tr/upload/editor/data/cikolata/FB,2120,20,ulker-dido-cikolatali-gofret-38-gr-bar-ve-kaplamalilar.jpg</t>
+  </si>
+  <si>
+    <t>https://6562ce622aecf5fc6d10-02ab0d1c5ff44151dc7db9ff68249adf.ssl.cf1.rackcdn.com/ulker-fistikli-80g-c9fbb6.jpg</t>
+  </si>
+  <si>
+    <t>http://cdn.shopify.com/s/files/1/0354/9117/products/Ulker_Petibor_Cocoa_Biscuit_175-900x900_1024x1024.jpg%3Fv%3D1391547972</t>
+  </si>
+  <si>
+    <t>http://www.atakentmarket.com/admin/PICS/products/big_crop_Ulker_Halley_Mini_Lokmalik_Granullu_77_gr_S94023_23d.jpg</t>
+  </si>
+  <si>
+    <t>https://6562ce622aecf5fc6d10-02ab0d1c5ff44151dc7db9ff68249adf.ssl.cf1.rackcdn.com/ulker-bitter-80g-09e1cd.jpg</t>
+  </si>
+  <si>
+    <t>https://6562ce622aecf5fc6d10-02ab0d1c5ff44151dc7db9ff68249adf.ssl.cf1.rackcdn.com/ulker-sutlu-80g-82868b.jpg</t>
+  </si>
+  <si>
+    <t>http://market.happy.com.tr/image/cache/data/items/ULKER_1412_7_CARAMIO_60_GR_KARAMELLI_CIKOLATA-500x500.jpg</t>
+  </si>
+  <si>
+    <t>http://www.avmsepet.com/Images/Urun/06012014100810.jpeg</t>
+  </si>
+  <si>
+    <t>http://kampanyabul.org/images/a101_1_eylul_2010.jpg</t>
+  </si>
+  <si>
+    <t>http://tr.exportaworld.com/img/attachment/2014/02/24/company-1393277589.png</t>
+  </si>
+  <si>
+    <t>http://www.marketbizden.com/yonetim/resim/urunler/biscolata_cikolatali_gofret_65g_cR8sDE.jpg</t>
+  </si>
+  <si>
+    <t>http://toptanservis.com/image/cache/data/urunler/nestle/nestle_damak_kare_cikolata-500x500.jpg</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/_We4e1lDZidY/SVJipOIajuI/AAAAAAAABL4/Qo2JDglrCbY/s1600-h/DSC01714.JPG</t>
+  </si>
+  <si>
+    <t>http://www.happy.com.tr/image/cache/data/HAPPY/Ari_Mama_T._500_Gr_Sutlu_Pirinc_Unu-600x600.jpg</t>
+  </si>
+  <si>
+    <t>https://mevadan.files.wordpress.com/2011/04/dscn7731.jpg</t>
+  </si>
+  <si>
+    <t>http://www.marketkapinizda.com/wp-content/uploads/2014/03/albeni_tane_tane.jpg</t>
+  </si>
+  <si>
+    <t>https://image.marketservisi.com/productphotos/373/super-market/cikolata-biskuvi-sekerleme/kraker/100186352012216597.jpg</t>
+  </si>
+  <si>
+    <t>http://www.coursehero.com/thumb/6f/69/6f69d9f9113c3b5a312925f18bfee6611fcb3ba3_180.jpg</t>
+  </si>
+  <si>
+    <t>https://solen.com.tr/content/images/products/37.jpg</t>
   </si>
 </sst>
 </file>
@@ -779,9 +1292,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1084,1936 +1598,2539 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B240"/>
+  <dimension ref="A1:C240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="B240" sqref="B1:B240"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C8" activeCellId="28" sqref="C205:C208 C199:C200 C197 C193 C177 C158:C159 C154 C146:C148 C143 C133:C135 C125:C126 C121:C122 C118 C112 C107:C109 C105 C102:C103 C98:C99 C93:C96 C89:C90 C83 C80 C74 C54:C55 C41 C31 C20:C26 C16:C17 C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="2" max="2" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="230.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>13001065</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>13001067</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>13001074</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>13001075</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>13001076</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>13001077</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>13001081</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>13001083</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>13001089</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>13001093</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>13001096</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>13001111</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13001112</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13001113</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13001128</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13001144</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13001145</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14000026</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>14000027</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>14000030</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>14000031</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>14000032</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>14000033</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>14000034</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>14000035</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>14000036</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>14000043</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>14000048</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>14000050</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>14000052</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>14000111</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>14000121</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>14000123</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>14000132</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>14000138</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>14000171</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>14000254</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>14000263</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>14000281</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>14000331</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>14000377</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>14000378</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>14000446</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>14000447</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>14000471</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>14000473</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>14000474</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>14000477</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>14000551</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>14000614</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>14000723</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>14000831</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>14000832</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>14000848</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>14000883</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55" s="2"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>14000991</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>14000992</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>14001075</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>14001151</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>14001187</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>14001207</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>14001242</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>14001252</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>14001254</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>14001257</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>14001258</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>14001259</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>14001260</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>14001261</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>14001262</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>14001263</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>14001264</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>14001265</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>14001267</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74" s="2"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>14001268</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>14001290</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>14001311</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>14001369</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>15000005</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>15000024</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C80" s="2"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>15000122</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>15000141</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C82" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>15000195</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C83" s="2"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>15000205</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C84" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>15000206</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C85" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>15000214</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C86" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>15000242</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C87" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>15000243</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C88" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>15000261</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C89" s="2"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>15000292</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C90" s="2"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>15000312</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C91" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>15000321</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C92" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>15000322</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C93" s="2"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>15000323</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C94" s="2"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>15000324</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C95" s="2"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>15000341</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C96" s="2"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>15000361</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C97" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>15000391</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C98" s="2"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>15003392</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C99" s="2"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>15000401</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C100" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>15000402</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C101" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>15000441</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C102" s="2"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>15000462</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C103" s="2"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>15000481</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C104" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>15000501</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C105" s="2"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>15000542</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C106" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>15000621</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C107" s="2"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>15000650</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C108" s="2"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>15000651</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C109" s="2"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>15000658</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C110" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>15000676</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C111" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>15000677</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C112" s="2"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>15000683</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C113" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>15000690</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C114" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>15000691</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C115" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>15000693</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C116" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>15000705</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C117" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>16000005</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C118" s="2"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>16000071</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C119" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>16000072</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C120" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>16000091</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C121" s="2"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>16000111</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C122" s="2"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>16000292</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C123" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>16000322</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C124" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>16000402</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C125" s="2"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>15000403</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C126" s="2"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>16000482</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C127" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>16000485</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C128" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>16000535</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C129" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>16000641</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C130" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>18000651</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C131" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>16000687</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C132" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>16000719</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C133" s="2"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>16000803</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C134" s="2"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>16000813</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C135" s="2"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>16000846</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C136" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>16000847</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C137" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>16000856</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C138" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>18000872</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C139" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>16000873</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C140" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>16000877</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C141" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>16000878</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C142" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>16000880</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C143" s="2"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>16000884</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C144" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>16000920</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C145" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>16000928</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C146" s="2"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>16000929</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C147" s="2"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>16000930</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C148" s="2"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>16000991</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C149" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>16000992</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C150" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>16000995</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C151" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>16001010</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C152" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>17000001</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C153" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>17000006</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C154" s="2"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>17000009</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C155" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>17000013</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C156" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>17000017</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C157" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>17000025</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C158" s="2"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>17000026</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C159" s="2"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>17000029</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C160" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>17000042</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C161" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>17000046</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C162" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>17000050</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C163" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>17000054</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C164" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>17000060</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C165" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>17000061</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C166" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>17000077</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C167" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>17000084</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C168" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>17000095</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C169" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>17000103</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C170" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>17000110</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C171" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>17000113</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C172" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>17000117</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C173" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>17000127</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C174" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>17000132</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C175" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>17000133</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C176" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>17000151</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C177" s="2"/>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>17000154</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C178" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>17000157</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C179" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>17000172</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C180" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>17000174</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C181" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>17000175</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C182" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>17000191</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C183" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>17000192</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C184" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>17000193</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C185" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>17000199</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C186" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>17000221</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C187" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>17000232</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C188" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>17000262</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C189" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>17000284</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C190" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>17000285</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C191" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>17000291</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C192" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>17000321</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C193" s="2"/>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>17000375</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C194" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>17000384</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C195" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>17000522</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C196" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>17000593</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C197" s="2"/>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>17000626</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C198" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>17000643</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C199" s="2"/>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>17000681</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C200" s="2"/>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>17000691</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C201" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>17000692</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C202" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>17000701</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C203" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>17000702</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C204" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>17000703</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C205" s="2"/>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>17000723</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C206" s="2"/>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>17000731</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C207" s="2"/>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>17000732</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C208" s="2"/>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>17000735</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C209" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>17000741</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C210" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>17000742</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C211" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>17000747</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C212" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>17000749</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C213" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>17000752</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C214" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>17000754</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C215" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>17000759</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C216" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>17000766</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C217" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>17000771</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C218" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>17000775</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C219" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>17000777</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C220" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>17000787</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C221" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>17000790</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C222" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>17000791</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C223" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>17000794</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C224" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>17000796</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C225" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>17000802</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C226" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>17000813</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C227" s="2"/>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>17000814</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C228" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>17000831</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C229" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>17000832</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C230" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>17000851</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C231" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>17000881</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C232" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>17000961</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C233" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>17001002</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C234" s="2"/>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>17001022</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C235" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>17001057</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C236" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>17001101</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C237" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>17001121</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C238" s="2"/>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>17001151</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C239" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>17001161</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>239</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>410</v>
       </c>
     </row>
   </sheetData>
